--- a/week12/day01/desigining database tables examples.xlsx
+++ b/week12/day01/desigining database tables examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehicks\SkillStorm\jon_javavettec20221003\100322-VET-TEC-Java\week12\day01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE067C9-D9AE-4264-85E7-212E30FA27DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C107B42E-2136-40F9-8345-B4976BC7ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FDF2F2CC-C33D-4AF8-A6BE-F4FAB35C5017}"/>
+    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="15840" xr2:uid="{FDF2F2CC-C33D-4AF8-A6BE-F4FAB35C5017}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Examples" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="114">
   <si>
     <t>Excel is NOT a databse, it is for visualizing data</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>item_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git </t>
   </si>
 </sst>
 </file>
@@ -451,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -474,22 +471,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1432,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984E9EF9-D4A6-40CF-BA88-2AF84A740959}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,7 +1508,7 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1689,7 +1716,7 @@
       <c r="E27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -1954,7 +1981,7 @@
       <c r="E41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -1980,7 +2007,7 @@
       <c r="F42" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2003,7 +2030,7 @@
       <c r="F43" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2026,7 +2053,7 @@
       <c r="F44" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2049,7 +2076,7 @@
       <c r="F45" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2072,7 +2099,7 @@
       <c r="F46" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2095,7 +2122,7 @@
       <c r="F47" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2118,7 +2145,7 @@
       <c r="F48" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2141,7 +2168,7 @@
       <c r="F49" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2164,7 +2191,7 @@
       <c r="F50" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2187,26 +2214,26 @@
       <c r="F51" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E52" s="4"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E53" s="4"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G54" s="7"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G55" s="7"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
@@ -2218,10 +2245,10 @@
       <c r="C56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B57" t="s">
@@ -2231,10 +2258,10 @@
         <v>55</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B58" t="s">
@@ -2243,10 +2270,10 @@
       <c r="C58" t="s">
         <v>56</v>
       </c>
-      <c r="G58" s="7"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B59" t="s">
@@ -2255,10 +2282,10 @@
       <c r="C59" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B60" t="s">
@@ -2267,10 +2294,10 @@
       <c r="C60" t="s">
         <v>58</v>
       </c>
-      <c r="G60" s="7"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
@@ -2279,10 +2306,10 @@
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="G61" s="7"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
@@ -2291,10 +2318,10 @@
       <c r="C62" t="s">
         <v>60</v>
       </c>
-      <c r="G62" s="7"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
@@ -2303,10 +2330,10 @@
       <c r="C63" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="7"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B64" t="s">
@@ -2315,10 +2342,10 @@
       <c r="C64" t="s">
         <v>55</v>
       </c>
-      <c r="G64" s="7"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B65" t="s">
@@ -2327,10 +2354,10 @@
       <c r="C65" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="7"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G66" s="7"/>
+      <c r="G66" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2344,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6519FDBC-C4F3-4824-A13A-01546B269AA5}">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2379,7 +2406,7 @@
       </c>
       <c r="B3" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -2391,7 +2418,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B5" ca="1" si="0">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
@@ -2403,7 +2430,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="C5" t="s">
         <v>83</v>
@@ -2426,7 +2453,7 @@
       </c>
       <c r="B7" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -2444,7 +2471,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2471,7 +2498,7 @@
       </c>
       <c r="C14" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -2486,7 +2513,7 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" ref="C15:C16" ca="1" si="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
@@ -2501,7 +2528,7 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D16" t="s">
         <v>83</v>
@@ -2530,7 +2557,7 @@
       </c>
       <c r="C18" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D18" t="s">
         <v>86</v>
@@ -2551,7 +2578,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2590,7 +2617,7 @@
       </c>
       <c r="C24" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D24" t="s">
         <v>103</v>
@@ -2611,7 +2638,7 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" ref="C25:C26" ca="1" si="2">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
@@ -2629,7 +2656,7 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D26" t="s">
         <v>104</v>
@@ -2661,7 +2688,7 @@
       </c>
       <c r="C28" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D28" t="s">
         <v>92</v>
@@ -2688,7 +2715,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2715,7 +2742,7 @@
       </c>
       <c r="C34" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D34" t="s">
         <v>103</v>
@@ -2730,7 +2757,7 @@
       </c>
       <c r="C35" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D35" t="s">
         <v>98</v>
@@ -2745,7 +2772,7 @@
       </c>
       <c r="C36" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D36" t="s">
         <v>99</v>
@@ -2760,7 +2787,7 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" ref="C37:C39" ca="1" si="3">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D37" t="s">
         <v>102</v>
@@ -2775,7 +2802,7 @@
       </c>
       <c r="C38" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D38" t="s">
         <v>100</v>
@@ -2790,7 +2817,7 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D39" t="s">
         <v>104</v>
@@ -2805,7 +2832,7 @@
       </c>
       <c r="C40" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D40" t="s">
         <v>105</v>
@@ -2834,7 +2861,7 @@
       </c>
       <c r="C42" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D42" t="s">
         <v>106</v>
@@ -2849,7 +2876,7 @@
       </c>
       <c r="C43" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D43" t="s">
         <v>101</v>
@@ -2864,7 +2891,7 @@
       </c>
       <c r="C44" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D44" t="s">
         <v>92</v>
@@ -2885,7 +2912,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2909,7 +2936,7 @@
       </c>
       <c r="C50" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2921,7 +2948,7 @@
       </c>
       <c r="C51" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2933,7 +2960,7 @@
       </c>
       <c r="C52" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2956,7 +2983,7 @@
       </c>
       <c r="C54" s="4">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2985,13 +3012,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2999,184 +3026,196 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="8">
         <v>1</v>
       </c>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="8">
         <v>1</v>
       </c>
+      <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="8">
         <v>1</v>
       </c>
+      <c r="C66" s="8"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="8">
         <v>2</v>
       </c>
+      <c r="C67" s="8"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="8">
         <v>2</v>
       </c>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="8">
         <v>3</v>
       </c>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="8">
         <v>3</v>
       </c>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="8">
         <v>4</v>
       </c>
+      <c r="C71" s="8"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="8">
         <v>5</v>
       </c>
+      <c r="C72" s="8"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="8">
         <v>5</v>
       </c>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="8">
         <v>5</v>
       </c>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="8">
         <v>6</v>
       </c>
+      <c r="C75" s="8"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="8">
         <v>1</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="9">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="8">
         <v>2</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="9">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="8">
         <v>3</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="9">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="8">
         <v>4</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="9">
         <v>44910</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="8">
         <v>5</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="9">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="8">
         <v>6</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="9">
         <v>44910</v>
       </c>
     </row>
@@ -3195,215 +3234,213 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="8">
         <v>1</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" s="8">
         <v>2</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="8">
         <v>3</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="8">
         <v>4</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
         <v>5</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
         <v>6</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
         <v>7</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
         <v>8</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
         <v>9</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
         <v>10</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
         <v>11</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="8">
         <v>8</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="8">
         <v>1</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="8">
         <v>2</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="8">
         <v>3</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="8">
         <v>4</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="8">
         <v>5</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="8">
         <v>6</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="8">
         <v>7</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="8">
         <v>8</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="8">
         <v>9</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="8">
         <v>10</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="8">
         <v>11</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="8" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/week12/day01/desigining database tables examples.xlsx
+++ b/week12/day01/desigining database tables examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehicks\SkillStorm\jon_javavettec20221003\100322-VET-TEC-Java\week12\day01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C107B42E-2136-40F9-8345-B4976BC7ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BFB3BB-44EA-417E-BCB9-25B601BAAF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="15840" xr2:uid="{FDF2F2CC-C33D-4AF8-A6BE-F4FAB35C5017}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDF2F2CC-C33D-4AF8-A6BE-F4FAB35C5017}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Examples" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="115">
   <si>
     <t>Excel is NOT a databse, it is for visualizing data</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>item_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1459,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984E9EF9-D4A6-40CF-BA88-2AF84A740959}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:G51"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6519FDBC-C4F3-4824-A13A-01546B269AA5}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,7 +2383,7 @@
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2406,7 +2409,7 @@
       </c>
       <c r="B3" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -2418,7 +2421,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B5" ca="1" si="0">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
@@ -2430,7 +2433,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="C5" t="s">
         <v>83</v>
@@ -2453,7 +2456,7 @@
       </c>
       <c r="B7" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -2498,7 +2501,7 @@
       </c>
       <c r="C14" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -2513,7 +2516,7 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" ref="C15:C16" ca="1" si="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
@@ -2528,13 +2531,13 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2557,13 +2560,13 @@
       </c>
       <c r="C18" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2577,12 +2580,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2617,7 +2620,7 @@
       </c>
       <c r="C24" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D24" t="s">
         <v>103</v>
@@ -2628,8 +2631,11 @@
       <c r="F24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2638,7 +2644,7 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" ref="C25:C26" ca="1" si="2">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
@@ -2647,7 +2653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2656,7 +2662,7 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D26" t="s">
         <v>104</v>
@@ -2665,7 +2671,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -2688,7 +2694,7 @@
       </c>
       <c r="C28" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D28" t="s">
         <v>92</v>
@@ -2700,7 +2706,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>90</v>
       </c>
@@ -2742,7 +2748,7 @@
       </c>
       <c r="C34" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D34" t="s">
         <v>103</v>
@@ -2757,7 +2763,7 @@
       </c>
       <c r="C35" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D35" t="s">
         <v>98</v>
@@ -2772,7 +2778,7 @@
       </c>
       <c r="C36" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D36" t="s">
         <v>99</v>
@@ -2787,7 +2793,7 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" ref="C37:C39" ca="1" si="3">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D37" t="s">
         <v>102</v>
@@ -2802,7 +2808,7 @@
       </c>
       <c r="C38" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D38" t="s">
         <v>100</v>
@@ -2817,7 +2823,7 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D39" t="s">
         <v>104</v>
@@ -2832,7 +2838,7 @@
       </c>
       <c r="C40" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D40" t="s">
         <v>105</v>
@@ -2861,7 +2867,7 @@
       </c>
       <c r="C42" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D42" t="s">
         <v>106</v>
@@ -2876,7 +2882,7 @@
       </c>
       <c r="C43" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D43" t="s">
         <v>101</v>
@@ -2891,7 +2897,7 @@
       </c>
       <c r="C44" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D44" t="s">
         <v>92</v>
@@ -2936,7 +2942,7 @@
       </c>
       <c r="C50" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2948,7 +2954,7 @@
       </c>
       <c r="C51" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2960,7 +2966,7 @@
       </c>
       <c r="C52" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2983,7 +2989,7 @@
       </c>
       <c r="C54" s="4">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3158,7 +3164,7 @@
       </c>
       <c r="C80" s="9">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3170,7 +3176,7 @@
       </c>
       <c r="C81" s="9">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3182,7 +3188,7 @@
       </c>
       <c r="C82" s="9">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -3205,7 +3211,7 @@
       </c>
       <c r="C84" s="9">
         <f ca="1">TODAY()</f>
-        <v>44915</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">

--- a/week12/day01/desigining database tables examples.xlsx
+++ b/week12/day01/desigining database tables examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehicks\SkillStorm\jon_javavettec20221003\100322-VET-TEC-Java\week12\day01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BFB3BB-44EA-417E-BCB9-25B601BAAF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CFF1AF-E2ED-422D-8FE4-9AD213D7F27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDF2F2CC-C33D-4AF8-A6BE-F4FAB35C5017}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="117">
   <si>
     <t>Excel is NOT a databse, it is for visualizing data</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>mascot</t>
+  </si>
+  <si>
+    <t>eagle</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -502,13 +508,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -520,6 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1460,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984E9EF9-D4A6-40CF-BA88-2AF84A740959}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1698,12 +1716,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1728,8 +1746,11 @@
       <c r="H27" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1754,8 +1775,11 @@
       <c r="H28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1781,7 +1805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1807,7 +1831,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1833,7 +1857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2374,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6519FDBC-C4F3-4824-A13A-01546B269AA5}">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
